--- a/public/template_supplier.xlsx
+++ b/public/template_supplier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IFAA\5. Pemrograman Web Lanjut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_UTS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82FCF0DC-9CAC-4FDF-B790-B7025F26F2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4D017-AA22-4595-ADE2-3647FF90F9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="1248" windowWidth="10140" windowHeight="10980" xr2:uid="{D809BFC5-1B2C-4D76-B2BE-C49F404FC454}"/>
+    <workbookView xWindow="11340" yWindow="1380" windowWidth="10140" windowHeight="10980" xr2:uid="{D809BFC5-1B2C-4D76-B2BE-C49F404FC454}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,22 +45,22 @@
     <t>supplier_alamat</t>
   </si>
   <si>
-    <t>SUP004</t>
-  </si>
-  <si>
-    <t>Supplier D</t>
-  </si>
-  <si>
     <t>Jl. Rambutan No. 4</t>
   </si>
   <si>
     <t>Jl. Durian No. 5</t>
   </si>
   <si>
-    <t>Supplier E</t>
-  </si>
-  <si>
-    <t>SUP005</t>
+    <t>SUP010</t>
+  </si>
+  <si>
+    <t>SUP1000</t>
+  </si>
+  <si>
+    <t>Supplier Z</t>
+  </si>
+  <si>
+    <t>Supplier AS</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,24 +453,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
